--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Ccr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.14890639330928</v>
+        <v>1.466032</v>
       </c>
       <c r="H2">
-        <v>1.14890639330928</v>
+        <v>4.398096</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,31 +552,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0933634140901743</v>
+        <v>0.01636166666666667</v>
       </c>
       <c r="N2">
-        <v>0.0933634140901743</v>
+        <v>0.049085</v>
       </c>
       <c r="O2">
-        <v>0.002321511514798198</v>
+        <v>0.0003199896946173118</v>
       </c>
       <c r="P2">
-        <v>0.002321511514798198</v>
+        <v>0.0003199896946173118</v>
       </c>
       <c r="Q2">
-        <v>0.107265823349383</v>
+        <v>0.02398672690666667</v>
       </c>
       <c r="R2">
-        <v>0.107265823349383</v>
+        <v>0.21588054216</v>
       </c>
       <c r="S2">
-        <v>0.002321511514798198</v>
+        <v>0.0003199896946173118</v>
       </c>
       <c r="T2">
-        <v>0.002321511514798198</v>
+        <v>0.0003199896946173118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.14890639330928</v>
+        <v>1.466032</v>
       </c>
       <c r="H3">
-        <v>1.14890639330928</v>
+        <v>4.398096</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.9410353258467</v>
+        <v>0.116965</v>
       </c>
       <c r="N3">
-        <v>39.9410353258467</v>
+        <v>0.350895</v>
       </c>
       <c r="O3">
-        <v>0.9931467730213722</v>
+        <v>0.002287517243409221</v>
       </c>
       <c r="P3">
-        <v>0.9931467730213722</v>
+        <v>0.002287517243409221</v>
       </c>
       <c r="Q3">
-        <v>45.88851084125707</v>
+        <v>0.17147443288</v>
       </c>
       <c r="R3">
-        <v>45.88851084125707</v>
+        <v>1.54326989592</v>
       </c>
       <c r="S3">
-        <v>0.9931467730213722</v>
+        <v>0.002287517243409221</v>
       </c>
       <c r="T3">
-        <v>0.9931467730213722</v>
+        <v>0.002287517243409221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.14890639330928</v>
+        <v>1.466032</v>
       </c>
       <c r="H4">
-        <v>1.14890639330928</v>
+        <v>4.398096</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +673,96 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182250410860071</v>
+        <v>50.32711433333333</v>
       </c>
       <c r="N4">
-        <v>0.182250410860071</v>
+        <v>150.981343</v>
       </c>
       <c r="O4">
-        <v>0.004531715463829473</v>
+        <v>0.984261461535736</v>
       </c>
       <c r="P4">
-        <v>0.004531715463829473</v>
+        <v>0.9842614615357361</v>
       </c>
       <c r="Q4">
-        <v>0.2093886622203786</v>
+        <v>73.78116008032534</v>
       </c>
       <c r="R4">
-        <v>0.2093886622203786</v>
+        <v>664.030440722928</v>
       </c>
       <c r="S4">
-        <v>0.004531715463829473</v>
+        <v>0.984261461535736</v>
       </c>
       <c r="T4">
-        <v>0.004531715463829473</v>
+        <v>0.9842614615357361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.466032</v>
+      </c>
+      <c r="H5">
+        <v>4.398096</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.671414</v>
+      </c>
+      <c r="N5">
+        <v>2.014242</v>
+      </c>
+      <c r="O5">
+        <v>0.01313103152623741</v>
+      </c>
+      <c r="P5">
+        <v>0.01313103152623741</v>
+      </c>
+      <c r="Q5">
+        <v>0.984314409248</v>
+      </c>
+      <c r="R5">
+        <v>8.858829683231999</v>
+      </c>
+      <c r="S5">
+        <v>0.01313103152623741</v>
+      </c>
+      <c r="T5">
+        <v>0.01313103152623741</v>
       </c>
     </row>
   </sheetData>
